--- a/evaluation/assets/generated_files/dataframe_with_matched_object_ids.xlsx
+++ b/evaluation/assets/generated_files/dataframe_with_matched_object_ids.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB52"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,12 +604,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>57:d4:a8:d1:58:2f</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -623,29 +623,29 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>(217, 240, 1081)</t>
+          <t>(235, 244, 1083)</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="O2" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P2" t="n">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="Q2" t="n">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="R2" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="S2" t="n">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="T2" t="n">
-        <v>1123.838956434595</v>
+        <v>1130.131850714774</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -656,17 +656,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>add57521-4b4c-47cf-aa37-dc87b4dd8711</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>57:d4:a8:d1:58:2f</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -729,29 +729,29 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>(388, 127, 1243)</t>
+          <t>(351, 126, 1247)</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="O3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P3" t="n">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="Q3" t="n">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="R3" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S3" t="n">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="T3" t="n">
-        <v>1302.95280037306</v>
+        <v>1296.324804977518</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -764,17 +764,17 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -818,12 +818,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -837,29 +837,29 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>(131, 298, 1075)</t>
+          <t>(151, 283, 1103)</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="O4" t="n">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="P4" t="n">
-        <v>1075</v>
+        <v>1103</v>
       </c>
       <c r="Q4" t="n">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="R4" t="n">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="S4" t="n">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="T4" t="n">
-        <v>1119.225625153392</v>
+        <v>1144.574593462567</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -872,17 +872,17 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -905,18 +905,18 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00.495000</t>
+          <t>08:00:00.691000</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>43617.3333390625</v>
+        <v>43617.33334133102</v>
       </c>
       <c r="E5" t="n">
         <v>1559376000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -926,76 +926,76 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="K5" t="n">
-        <v>244</v>
+        <v>126</v>
       </c>
       <c r="L5" t="n">
-        <v>1084</v>
+        <v>1239</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>(208, 248, 1082)</t>
+          <t>(352, 126, 1239)</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>208</v>
+        <v>352</v>
       </c>
       <c r="O5" t="n">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="P5" t="n">
-        <v>1082</v>
+        <v>1239</v>
       </c>
       <c r="Q5" t="n">
-        <v>214</v>
+        <v>358</v>
       </c>
       <c r="R5" t="n">
-        <v>246</v>
+        <v>124</v>
       </c>
       <c r="S5" t="n">
-        <v>1086</v>
+        <v>1243</v>
       </c>
       <c r="T5" t="n">
-        <v>1124.894661735044</v>
+        <v>1288.923969829097</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W5" t="b">
         <v>0</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00:00.691000</t>
+          <t>08:00:00.992000</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>43617.33334133102</v>
+        <v>43617.33334481481</v>
       </c>
       <c r="E6" t="n">
         <v>1559376000</v>
@@ -1034,48 +1034,48 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>352</v>
       </c>
       <c r="K6" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L6" t="n">
-        <v>1239</v>
+        <v>1224</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>(322, 143, 1224)</t>
+          <t>(352, 127, 1224)</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="O6" t="n">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="P6" t="n">
         <v>1224</v>
       </c>
       <c r="Q6" t="n">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="R6" t="n">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="S6" t="n">
         <v>1228</v>
       </c>
       <c r="T6" t="n">
-        <v>1268.574396714674</v>
+        <v>1274.659562393034</v>
       </c>
       <c r="U6" t="b">
         <v>0</v>
@@ -1088,17 +1088,17 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1121,18 +1121,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00:00.992000</t>
+          <t>08:00:01.186000</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>43617.33334481481</v>
+        <v>43617.33334706019</v>
       </c>
       <c r="E7" t="n">
-        <v>1559376000</v>
+        <v>1559376001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1142,48 +1142,48 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>352</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>1224</v>
+        <v>1103</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>(353, 126, 1222)</t>
+          <t>(150, 283, 1103)</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>353</v>
+        <v>150</v>
       </c>
       <c r="O7" t="n">
-        <v>126</v>
+        <v>283</v>
       </c>
       <c r="P7" t="n">
-        <v>1222</v>
+        <v>1103</v>
       </c>
       <c r="Q7" t="n">
-        <v>359</v>
+        <v>156</v>
       </c>
       <c r="R7" t="n">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="S7" t="n">
-        <v>1226</v>
+        <v>1107</v>
       </c>
       <c r="T7" t="n">
-        <v>1272.916729405345</v>
+        <v>1144.448338720451</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1229,18 +1229,18 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00:01.002000</t>
+          <t>08:00:01.492000</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>43617.33334493056</v>
+        <v>43617.33335060185</v>
       </c>
       <c r="E8" t="n">
         <v>1559376001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1250,76 +1250,76 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>236</v>
+        <v>351</v>
       </c>
       <c r="K8" t="n">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="L8" t="n">
-        <v>1075</v>
+        <v>1217</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>(231, 245, 1039)</t>
+          <t>(351, 127, 1217)</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="O8" t="n">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="P8" t="n">
-        <v>1039</v>
+        <v>1217</v>
       </c>
       <c r="Q8" t="n">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="R8" t="n">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="S8" t="n">
-        <v>1043</v>
+        <v>1221</v>
       </c>
       <c r="T8" t="n">
-        <v>1087.593214395897</v>
+        <v>1267.688841948212</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1337,11 +1337,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00:01.186000</t>
+          <t>08:00:01.693000</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>43617.33334706019</v>
+        <v>43617.33335292824</v>
       </c>
       <c r="E9" t="n">
         <v>1559376001</v>
@@ -1358,48 +1358,48 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J9" t="n">
         <v>150</v>
       </c>
       <c r="K9" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L9" t="n">
-        <v>1103</v>
+        <v>1084</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>(158, 293, 1134)</t>
+          <t>(150, 282, 1084)</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O9" t="n">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P9" t="n">
-        <v>1134</v>
+        <v>1084</v>
       </c>
       <c r="Q9" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="R9" t="n">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="S9" t="n">
-        <v>1138</v>
+        <v>1088</v>
       </c>
       <c r="T9" t="n">
-        <v>1177.721953603651</v>
+        <v>1125.962699204552</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1412,17 +1412,17 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1445,18 +1445,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00:01.492000</t>
+          <t>08:00:01.892000</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>43617.33335060185</v>
+        <v>43617.33335523148</v>
       </c>
       <c r="E10" t="n">
         <v>1559376001</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1466,48 +1466,48 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="K10" t="n">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="L10" t="n">
-        <v>1217</v>
+        <v>1067</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>(357, 103, 1226)</t>
+          <t>(150, 283, 1067)</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>357</v>
+        <v>150</v>
       </c>
       <c r="O10" t="n">
-        <v>103</v>
+        <v>283</v>
       </c>
       <c r="P10" t="n">
-        <v>1226</v>
+        <v>1067</v>
       </c>
       <c r="Q10" t="n">
-        <v>363</v>
+        <v>156</v>
       </c>
       <c r="R10" t="n">
-        <v>101</v>
+        <v>281</v>
       </c>
       <c r="S10" t="n">
-        <v>1230</v>
+        <v>1071</v>
       </c>
       <c r="T10" t="n">
-        <v>1275.739001520295</v>
+        <v>1109.923420781812</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
@@ -1520,22 +1520,22 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1553,18 +1553,18 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00:01.493000</t>
+          <t>08:00:02.189000</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>43617.33335061343</v>
+        <v>43617.33335866898</v>
       </c>
       <c r="E11" t="n">
-        <v>1559376001</v>
+        <v>1559376002</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1574,76 +1574,76 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="K11" t="n">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="L11" t="n">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>(229, 236, 1100)</t>
+          <t>(148, 283, 1058)</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="O11" t="n">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="P11" t="n">
-        <v>1100</v>
+        <v>1058</v>
       </c>
       <c r="Q11" t="n">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="R11" t="n">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="S11" t="n">
-        <v>1104</v>
+        <v>1062</v>
       </c>
       <c r="T11" t="n">
-        <v>1143.498578923472</v>
+        <v>1101.04722877813</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="b">
         <v>0</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1661,14 +1661,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00:01.693000</t>
+          <t>08:00:02.491000</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>43617.33335292824</v>
+        <v>43617.33336216435</v>
       </c>
       <c r="E12" t="n">
-        <v>1559376001</v>
+        <v>1559376002</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1682,48 +1682,48 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K12" t="n">
         <v>282</v>
       </c>
       <c r="L12" t="n">
-        <v>1084</v>
+        <v>1058</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>(154, 255, 1100)</t>
+          <t>(148, 282, 1058)</t>
         </is>
       </c>
       <c r="N12" t="n">
+        <v>148</v>
+      </c>
+      <c r="O12" t="n">
+        <v>282</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1058</v>
+      </c>
+      <c r="Q12" t="n">
         <v>154</v>
       </c>
-      <c r="O12" t="n">
-        <v>255</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1100</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>160</v>
-      </c>
       <c r="R12" t="n">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="S12" t="n">
-        <v>1104</v>
+        <v>1062</v>
       </c>
       <c r="T12" t="n">
-        <v>1135.415782874274</v>
+        <v>1100.78880808264</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
@@ -1736,17 +1736,17 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1769,14 +1769,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00:01.892000</t>
+          <t>08:00:02.690000</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>43617.33335523148</v>
+        <v>43617.33336446759</v>
       </c>
       <c r="E13" t="n">
-        <v>1559376001</v>
+        <v>1559376002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1790,48 +1790,48 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K13" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L13" t="n">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>(156, 287, 1071)</t>
+          <t>(149, 282, 1058)</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O13" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P13" t="n">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="Q13" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R13" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="S13" t="n">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="T13" t="n">
-        <v>1115.576084361797</v>
+        <v>1100.918253096023</v>
       </c>
       <c r="U13" t="b">
         <v>0</v>
@@ -1844,17 +1844,17 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1877,18 +1877,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:00:02.189000</t>
+          <t>08:00:02.892000</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>43617.33335866898</v>
+        <v>43617.33336680556</v>
       </c>
       <c r="E14" t="n">
         <v>1559376002</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1898,48 +1898,48 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>148</v>
+        <v>351</v>
       </c>
       <c r="K14" t="n">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="L14" t="n">
-        <v>1058</v>
+        <v>1224</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>(162, 304, 1058)</t>
+          <t>(351, 127, 1224)</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>162</v>
+        <v>351</v>
       </c>
       <c r="O14" t="n">
-        <v>304</v>
+        <v>127</v>
       </c>
       <c r="P14" t="n">
-        <v>1058</v>
+        <v>1224</v>
       </c>
       <c r="Q14" t="n">
-        <v>168</v>
+        <v>357</v>
       </c>
       <c r="R14" t="n">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="S14" t="n">
-        <v>1062</v>
+        <v>1228</v>
       </c>
       <c r="T14" t="n">
-        <v>1108.552208964467</v>
+        <v>1274.388480801675</v>
       </c>
       <c r="U14" t="b">
         <v>0</v>
@@ -1952,22 +1952,22 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -1985,14 +1985,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:00:02.491000</t>
+          <t>08:00:03.187000</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>43617.33336216435</v>
+        <v>43617.33337021991</v>
       </c>
       <c r="E15" t="n">
-        <v>1559376002</v>
+        <v>1559376003</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2006,48 +2006,48 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K15" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L15" t="n">
-        <v>1058</v>
+        <v>1028</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>(154, 278, 1035)</t>
+          <t>(149, 281, 1028)</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="O15" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P15" t="n">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="Q15" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="R15" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="S15" t="n">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="T15" t="n">
-        <v>1078.547634553059</v>
+        <v>1071.967350249064</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
@@ -2060,17 +2060,17 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2093,18 +2093,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:00:02.502000</t>
+          <t>08:00:03.493000</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>43617.33336229167</v>
+        <v>43617.33337376158</v>
       </c>
       <c r="E16" t="n">
-        <v>1559376002</v>
+        <v>1559376003</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2114,76 +2114,76 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>235</v>
+        <v>352</v>
       </c>
       <c r="K16" t="n">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="L16" t="n">
-        <v>1075</v>
+        <v>1224</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>(199, 258, 1073)</t>
+          <t>(352, 127, 1224)</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>199</v>
+        <v>352</v>
       </c>
       <c r="O16" t="n">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="P16" t="n">
-        <v>1073</v>
+        <v>1224</v>
       </c>
       <c r="Q16" t="n">
-        <v>205</v>
+        <v>358</v>
       </c>
       <c r="R16" t="n">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="S16" t="n">
-        <v>1077</v>
+        <v>1228</v>
       </c>
       <c r="T16" t="n">
-        <v>1116.964636861884</v>
+        <v>1274.659562393034</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W16" t="b">
         <v>0</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:00:02.690000</t>
+          <t>08:00:03.689000</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>43617.33336446759</v>
+        <v>43617.3333760301</v>
       </c>
       <c r="E17" t="n">
-        <v>1559376002</v>
+        <v>1559376003</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2222,48 +2222,48 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K17" t="n">
         <v>282</v>
       </c>
       <c r="L17" t="n">
-        <v>1058</v>
+        <v>1010</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>(130, 255, 1064)</t>
+          <t>(148, 282, 1010)</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="O17" t="n">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="P17" t="n">
-        <v>1064</v>
+        <v>1010</v>
       </c>
       <c r="Q17" t="n">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="R17" t="n">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="S17" t="n">
-        <v>1068</v>
+        <v>1014</v>
       </c>
       <c r="T17" t="n">
-        <v>1097.736307133913</v>
+        <v>1054.919902172672</v>
       </c>
       <c r="U17" t="b">
         <v>0</v>
@@ -2276,17 +2276,17 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2309,18 +2309,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:00:02.892000</t>
+          <t>08:00:03.993000</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>43617.33336680556</v>
+        <v>43617.33337954861</v>
       </c>
       <c r="E18" t="n">
-        <v>1559376002</v>
+        <v>1559376003</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2330,48 +2330,48 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>351</v>
+        <v>147</v>
       </c>
       <c r="K18" t="n">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="L18" t="n">
-        <v>1224</v>
+        <v>1010</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>(326, 143, 1204)</t>
+          <t>(147, 283, 1010)</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>326</v>
+        <v>147</v>
       </c>
       <c r="O18" t="n">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="P18" t="n">
-        <v>1204</v>
+        <v>1010</v>
       </c>
       <c r="Q18" t="n">
-        <v>332</v>
+        <v>153</v>
       </c>
       <c r="R18" t="n">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="S18" t="n">
-        <v>1208</v>
+        <v>1014</v>
       </c>
       <c r="T18" t="n">
-        <v>1250.369945256203</v>
+        <v>1055.055448779826</v>
       </c>
       <c r="U18" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2417,14 +2417,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08:00:03.187000</t>
+          <t>08:00:04.192000</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>43617.33337021991</v>
+        <v>43617.33338185185</v>
       </c>
       <c r="E19" t="n">
-        <v>1559376003</v>
+        <v>1559376004</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2438,48 +2438,48 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K19" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L19" t="n">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>(133, 257, 1010)</t>
+          <t>(147, 284, 1010)</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="O19" t="n">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="P19" t="n">
         <v>1010</v>
       </c>
       <c r="Q19" t="n">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="R19" t="n">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="S19" t="n">
         <v>1014</v>
       </c>
       <c r="T19" t="n">
-        <v>1046.540013568521</v>
+        <v>1055.326015978001</v>
       </c>
       <c r="U19" t="b">
         <v>0</v>
@@ -2492,17 +2492,17 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2525,14 +2525,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:00:03.493000</t>
+          <t>08:00:04.392000</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>43617.33337376158</v>
+        <v>43617.33338416667</v>
       </c>
       <c r="E20" t="n">
-        <v>1559376003</v>
+        <v>1559376004</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2546,48 +2546,48 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J20" t="n">
         <v>352</v>
       </c>
       <c r="K20" t="n">
+        <v>129</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1210</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>(352, 129, 1210)</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>352</v>
+      </c>
+      <c r="O20" t="n">
+        <v>129</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1210</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>358</v>
+      </c>
+      <c r="R20" t="n">
         <v>127</v>
       </c>
-      <c r="L20" t="n">
-        <v>1224</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>(337, 153, 1202)</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>337</v>
-      </c>
-      <c r="O20" t="n">
-        <v>153</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1202</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>343</v>
-      </c>
-      <c r="R20" t="n">
-        <v>151</v>
-      </c>
       <c r="S20" t="n">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="T20" t="n">
-        <v>1252.513472981429</v>
+        <v>1261.47255221824</v>
       </c>
       <c r="U20" t="b">
         <v>0</v>
@@ -2600,17 +2600,17 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2633,18 +2633,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:00:03.496000</t>
+          <t>08:00:04.688000</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>43617.3333737963</v>
+        <v>43617.33338759259</v>
       </c>
       <c r="E21" t="n">
-        <v>1559376003</v>
+        <v>1559376004</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2654,76 +2654,76 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="K21" t="n">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="L21" t="n">
-        <v>1092</v>
+        <v>1217</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>(198, 251, 1089)</t>
+          <t>(352, 129, 1217)</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>198</v>
+        <v>352</v>
       </c>
       <c r="O21" t="n">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="P21" t="n">
-        <v>1089</v>
+        <v>1217</v>
       </c>
       <c r="Q21" t="n">
-        <v>204</v>
+        <v>358</v>
       </c>
       <c r="R21" t="n">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="S21" t="n">
-        <v>1093</v>
+        <v>1221</v>
       </c>
       <c r="T21" t="n">
-        <v>1130.529964220321</v>
+        <v>1268.166392868065</v>
       </c>
       <c r="U21" t="b">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W21" t="b">
         <v>0</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2741,18 +2741,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08:00:03.689000</t>
+          <t>08:00:04.992000</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>43617.3333760301</v>
+        <v>43617.33339111111</v>
       </c>
       <c r="E22" t="n">
-        <v>1559376003</v>
+        <v>1559376004</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2762,48 +2762,48 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>148</v>
+        <v>353</v>
       </c>
       <c r="K22" t="n">
-        <v>282</v>
+        <v>129</v>
       </c>
       <c r="L22" t="n">
-        <v>1010</v>
+        <v>1232</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>(127, 269, 1004)</t>
+          <t>(353, 129, 1232)</t>
         </is>
       </c>
       <c r="N22" t="n">
+        <v>353</v>
+      </c>
+      <c r="O22" t="n">
+        <v>129</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1232</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>359</v>
+      </c>
+      <c r="R22" t="n">
         <v>127</v>
       </c>
-      <c r="O22" t="n">
-        <v>269</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1004</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>133</v>
-      </c>
-      <c r="R22" t="n">
-        <v>267</v>
-      </c>
       <c r="S22" t="n">
-        <v>1008</v>
+        <v>1236</v>
       </c>
       <c r="T22" t="n">
-        <v>1043.111691047512</v>
+        <v>1282.79148734313</v>
       </c>
       <c r="U22" t="b">
         <v>0</v>
@@ -2816,22 +2816,22 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -2849,18 +2849,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00:03.993000</t>
+          <t>08:00:05.197000</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>43617.33337954861</v>
+        <v>43617.33339348379</v>
       </c>
       <c r="E23" t="n">
-        <v>1559376003</v>
+        <v>1559376005</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2870,48 +2870,48 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>147</v>
+        <v>352</v>
       </c>
       <c r="K23" t="n">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="L23" t="n">
-        <v>1010</v>
+        <v>1232</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>(148, 302, 1009)</t>
+          <t>(352, 129, 1232)</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>148</v>
+        <v>352</v>
       </c>
       <c r="O23" t="n">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="P23" t="n">
-        <v>1009</v>
+        <v>1232</v>
       </c>
       <c r="Q23" t="n">
-        <v>154</v>
+        <v>358</v>
       </c>
       <c r="R23" t="n">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="S23" t="n">
-        <v>1013</v>
+        <v>1236</v>
       </c>
       <c r="T23" t="n">
-        <v>1059.530556425816</v>
+        <v>1282.521344851617</v>
       </c>
       <c r="U23" t="b">
         <v>0</v>
@@ -2924,22 +2924,22 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -2957,18 +2957,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08:00:04</t>
+          <t>08:00:05.392000</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>43617.33337962963</v>
+        <v>43617.33339574074</v>
       </c>
       <c r="E24" t="n">
-        <v>1559376004</v>
+        <v>1559376005</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2978,76 +2978,76 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="K24" t="n">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="L24" t="n">
-        <v>1093</v>
+        <v>1224</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>(248, 213, 1078)</t>
+          <t>(352, 129, 1224)</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="O24" t="n">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="P24" t="n">
-        <v>1078</v>
+        <v>1224</v>
       </c>
       <c r="Q24" t="n">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="R24" t="n">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="S24" t="n">
-        <v>1082</v>
+        <v>1228</v>
       </c>
       <c r="T24" t="n">
-        <v>1121.724119380519</v>
+        <v>1274.863522107367</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W24" t="b">
         <v>0</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3065,18 +3065,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08:00:04.192000</t>
+          <t>08:00:05.691000</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>43617.33338185185</v>
+        <v>43617.33339920139</v>
       </c>
       <c r="E25" t="n">
-        <v>1559376004</v>
+        <v>1559376005</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3086,48 +3086,48 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>147</v>
+        <v>352</v>
       </c>
       <c r="K25" t="n">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="L25" t="n">
-        <v>1010</v>
+        <v>1210</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>(171, 303, 995)</t>
+          <t>(352, 129, 1210)</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="O25" t="n">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="P25" t="n">
-        <v>995</v>
+        <v>1210</v>
       </c>
       <c r="Q25" t="n">
-        <v>177</v>
+        <v>358</v>
       </c>
       <c r="R25" t="n">
-        <v>301</v>
+        <v>127</v>
       </c>
       <c r="S25" t="n">
-        <v>999</v>
+        <v>1214</v>
       </c>
       <c r="T25" t="n">
-        <v>1049.919520725279</v>
+        <v>1261.47255221824</v>
       </c>
       <c r="U25" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3173,14 +3173,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08:00:04.392000</t>
+          <t>08:00:05.984000</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>43617.33338416667</v>
+        <v>43617.33340259259</v>
       </c>
       <c r="E26" t="n">
-        <v>1559376004</v>
+        <v>1559376005</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3194,12 +3194,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -3213,29 +3213,29 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>(348, 152, 1190)</t>
+          <t>(352, 129, 1210)</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O26" t="n">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="P26" t="n">
-        <v>1190</v>
+        <v>1210</v>
       </c>
       <c r="Q26" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="R26" t="n">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="S26" t="n">
-        <v>1194</v>
+        <v>1214</v>
       </c>
       <c r="T26" t="n">
-        <v>1243.895494002611</v>
+        <v>1261.47255221824</v>
       </c>
       <c r="U26" t="b">
         <v>0</v>
@@ -3248,17 +3248,17 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3281,14 +3281,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>08:00:04.688000</t>
+          <t>08:00:06.186000</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>43617.33338759259</v>
+        <v>43617.33340493056</v>
       </c>
       <c r="E27" t="n">
-        <v>1559376004</v>
+        <v>1559376006</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3302,12 +3302,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -3317,33 +3317,33 @@
         <v>129</v>
       </c>
       <c r="L27" t="n">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>(389, 135, 1223)</t>
+          <t>(352, 129, 1210)</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="O27" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P27" t="n">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="Q27" t="n">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="R27" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="S27" t="n">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="T27" t="n">
-        <v>1285.075484164257</v>
+        <v>1261.47255221824</v>
       </c>
       <c r="U27" t="b">
         <v>0</v>
@@ -3356,17 +3356,17 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3389,14 +3389,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08:00:04.992000</t>
+          <t>08:00:06.490000</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>43617.33339111111</v>
+        <v>43617.33340844907</v>
       </c>
       <c r="E28" t="n">
-        <v>1559376004</v>
+        <v>1559376006</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3410,48 +3410,48 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K28" t="n">
         <v>129</v>
       </c>
       <c r="L28" t="n">
-        <v>1232</v>
+        <v>1210</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>(376, 123, 1208)</t>
+          <t>(351, 129, 1210)</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="O28" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P28" t="n">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="Q28" t="n">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="R28" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="S28" t="n">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="T28" t="n">
-        <v>1265.757085700096</v>
+        <v>1261.198636218736</v>
       </c>
       <c r="U28" t="b">
         <v>0</v>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3497,18 +3497,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>08:00:04.996000</t>
+          <t>08:00:06.690000</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>43617.33339115741</v>
+        <v>43617.33341076389</v>
       </c>
       <c r="E29" t="n">
-        <v>1559376004</v>
+        <v>1559376006</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3518,76 +3518,76 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>237</v>
+        <v>351</v>
       </c>
       <c r="K29" t="n">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="L29" t="n">
-        <v>1110</v>
+        <v>1210</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>(270, 251, 1118)</t>
+          <t>(351, 129, 1210)</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="O29" t="n">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="P29" t="n">
-        <v>1118</v>
+        <v>1210</v>
       </c>
       <c r="Q29" t="n">
-        <v>276</v>
+        <v>357</v>
       </c>
       <c r="R29" t="n">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="S29" t="n">
-        <v>1122</v>
+        <v>1214</v>
       </c>
       <c r="T29" t="n">
-        <v>1172.476438995684</v>
+        <v>1261.198636218736</v>
       </c>
       <c r="U29" t="b">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W29" t="b">
         <v>0</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3605,18 +3605,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>08:00:05.197000</t>
+          <t>08:00:06.984000</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>43617.33339348379</v>
+        <v>43617.33341416666</v>
       </c>
       <c r="E30" t="n">
-        <v>1559376005</v>
+        <v>1559376006</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3626,48 +3626,48 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>352</v>
+        <v>147</v>
       </c>
       <c r="K30" t="n">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="L30" t="n">
-        <v>1232</v>
+        <v>1010</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>(355, 111, 1215)</t>
+          <t>(147, 283, 1010)</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>355</v>
+        <v>147</v>
       </c>
       <c r="O30" t="n">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="P30" t="n">
-        <v>1215</v>
+        <v>1010</v>
       </c>
       <c r="Q30" t="n">
-        <v>361</v>
+        <v>153</v>
       </c>
       <c r="R30" t="n">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="S30" t="n">
-        <v>1219</v>
+        <v>1014</v>
       </c>
       <c r="T30" t="n">
-        <v>1265.342246192705</v>
+        <v>1055.055448779826</v>
       </c>
       <c r="U30" t="b">
         <v>0</v>
@@ -3680,22 +3680,22 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3713,18 +3713,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>08:00:05.392000</t>
+          <t>08:00:07.185000</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>43617.33339574074</v>
+        <v>43617.33341649306</v>
       </c>
       <c r="E31" t="n">
-        <v>1559376005</v>
+        <v>1559376007</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3734,48 +3734,48 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>352</v>
+        <v>148</v>
       </c>
       <c r="K31" t="n">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="L31" t="n">
-        <v>1224</v>
+        <v>1010</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>(349, 106, 1209)</t>
+          <t>(148, 283, 1010)</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>349</v>
+        <v>148</v>
       </c>
       <c r="O31" t="n">
-        <v>106</v>
+        <v>283</v>
       </c>
       <c r="P31" t="n">
-        <v>1209</v>
+        <v>1010</v>
       </c>
       <c r="Q31" t="n">
-        <v>355</v>
+        <v>154</v>
       </c>
       <c r="R31" t="n">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="S31" t="n">
-        <v>1213</v>
+        <v>1014</v>
       </c>
       <c r="T31" t="n">
-        <v>1257.512624191105</v>
+        <v>1055.189556430502</v>
       </c>
       <c r="U31" t="b">
         <v>0</v>
@@ -3788,22 +3788,22 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -3821,14 +3821,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>08:00:05.691000</t>
+          <t>08:00:07.489000</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>43617.33339920139</v>
+        <v>43617.33342001157</v>
       </c>
       <c r="E32" t="n">
-        <v>1559376005</v>
+        <v>1559376007</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3842,16 +3842,16 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K32" t="n">
         <v>129</v>
@@ -3861,29 +3861,29 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>(336, 137, 1235)</t>
+          <t>(351, 129, 1210)</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="O32" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="P32" t="n">
-        <v>1235</v>
+        <v>1210</v>
       </c>
       <c r="Q32" t="n">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="R32" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="S32" t="n">
-        <v>1239</v>
+        <v>1214</v>
       </c>
       <c r="T32" t="n">
-        <v>1282.022620705267</v>
+        <v>1261.198636218736</v>
       </c>
       <c r="U32" t="b">
         <v>0</v>
@@ -3896,17 +3896,17 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -3929,14 +3929,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>08:00:05.984000</t>
+          <t>08:00:07.689000</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>43617.33340259259</v>
+        <v>43617.33342232639</v>
       </c>
       <c r="E33" t="n">
-        <v>1559376005</v>
+        <v>1559376007</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3950,16 +3950,16 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K33" t="n">
         <v>129</v>
@@ -3969,29 +3969,29 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>(374, 105, 1232)</t>
+          <t>(351, 129, 1210)</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="O33" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="P33" t="n">
-        <v>1232</v>
+        <v>1210</v>
       </c>
       <c r="Q33" t="n">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="R33" t="n">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S33" t="n">
-        <v>1236</v>
+        <v>1214</v>
       </c>
       <c r="T33" t="n">
-        <v>1286.41245329793</v>
+        <v>1261.198636218736</v>
       </c>
       <c r="U33" t="b">
         <v>0</v>
@@ -4004,17 +4004,17 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4037,18 +4037,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>08:00:05.994000</t>
+          <t>08:00:07.982000</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>43617.33340270833</v>
+        <v>43617.3334257176</v>
       </c>
       <c r="E34" t="n">
-        <v>1559376005</v>
+        <v>1559376007</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -4058,76 +4058,76 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="K34" t="n">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="L34" t="n">
-        <v>1092</v>
+        <v>1010</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>(238, 257, 1078)</t>
+          <t>(147, 282, 1010)</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="O34" t="n">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="P34" t="n">
-        <v>1078</v>
+        <v>1010</v>
       </c>
       <c r="Q34" t="n">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="R34" t="n">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="S34" t="n">
-        <v>1082</v>
+        <v>1014</v>
       </c>
       <c r="T34" t="n">
-        <v>1128.884847980519</v>
+        <v>1054.785760237594</v>
       </c>
       <c r="U34" t="b">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W34" t="b">
         <v>0</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>16:0a:79:df:2f:af</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4145,14 +4145,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>08:00:06.186000</t>
+          <t>08:00:08.192000</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>43617.33340493056</v>
+        <v>43617.33342814815</v>
       </c>
       <c r="E35" t="n">
-        <v>1559376006</v>
+        <v>1559376008</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -4166,16 +4166,16 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K35" t="n">
         <v>129</v>
@@ -4185,29 +4185,29 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>(387, 140, 1208)</t>
+          <t>(350, 129, 1210)</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="O35" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="P35" t="n">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="Q35" t="n">
-        <v>393</v>
+        <v>356</v>
       </c>
       <c r="R35" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="S35" t="n">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="T35" t="n">
-        <v>1270.803289262347</v>
+        <v>1260.925453783847</v>
       </c>
       <c r="U35" t="b">
         <v>0</v>
@@ -4220,17 +4220,17 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>bf619b41-3e16-4921-95e5-4b35eb46a689</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>c8:4e:8c:fb:78:f8</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4253,97 +4253,95 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>08:00:06.490000</t>
+          <t>08:00:00.183000</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>43617.33340844907</v>
+        <v>43617.33333545139</v>
       </c>
       <c r="E36" t="n">
-        <v>1559376006</v>
+        <v>1559376000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="K36" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="L36" t="n">
-        <v>1210</v>
+        <v>1103</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>(374, 122, 1222)</t>
+          <t>(151, 282, 1103)</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>374</v>
+        <v>151</v>
       </c>
       <c r="O36" t="n">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="P36" t="n">
-        <v>1222</v>
+        <v>1103</v>
       </c>
       <c r="Q36" t="n">
-        <v>380</v>
+        <v>188.5079284414117</v>
       </c>
       <c r="R36" t="n">
-        <v>120</v>
+        <v>252.4663146521928</v>
       </c>
       <c r="S36" t="n">
-        <v>1226</v>
+        <v>1105.15288264414</v>
       </c>
       <c r="T36" t="n">
-        <v>1278.406821008086</v>
+        <v>1147.734289807532</v>
       </c>
       <c r="U36" t="b">
         <v>0</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="b">
         <v>0</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
@@ -4361,97 +4359,97 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>08:00:06.499000</t>
+          <t>08:00:03.187000</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>43617.33340855324</v>
+        <v>43617.33337021991</v>
       </c>
       <c r="E37" t="n">
-        <v>1559376006</v>
+        <v>1559376003</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="K37" t="n">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="L37" t="n">
-        <v>1075</v>
+        <v>1028</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>(256, 238, 1056)</t>
+          <t>(149, 281, 1028)</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>256</v>
+        <v>149</v>
       </c>
       <c r="O37" t="n">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="P37" t="n">
-        <v>1056</v>
+        <v>1028</v>
       </c>
       <c r="Q37" t="n">
-        <v>262</v>
+        <v>182.6599987513144</v>
       </c>
       <c r="R37" t="n">
-        <v>236</v>
+        <v>253.9402887542175</v>
       </c>
       <c r="S37" t="n">
-        <v>1060</v>
+        <v>1030.362314263586</v>
       </c>
       <c r="T37" t="n">
-        <v>1107.611845368223</v>
+        <v>1075.385512269902</v>
       </c>
       <c r="U37" t="b">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W37" t="b">
         <v>0</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4469,69 +4467,69 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>08:00:06.690000</t>
+          <t>08:00:03.689000</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>43617.33341076389</v>
+        <v>43617.3333760301</v>
       </c>
       <c r="E38" t="n">
-        <v>1559376006</v>
+        <v>1559376003</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>351</v>
+        <v>148</v>
       </c>
       <c r="K38" t="n">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="L38" t="n">
-        <v>1210</v>
+        <v>1010</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>(336, 134, 1196)</t>
+          <t>(148, 282, 1010)</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>336</v>
+        <v>148</v>
       </c>
       <c r="O38" t="n">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="P38" t="n">
-        <v>1196</v>
+        <v>1010</v>
       </c>
       <c r="Q38" t="n">
-        <v>342</v>
+        <v>180.6520937406213</v>
       </c>
       <c r="R38" t="n">
-        <v>132</v>
+        <v>255.4929117028489</v>
       </c>
       <c r="S38" t="n">
-        <v>1200</v>
+        <v>1012.486137954112</v>
       </c>
       <c r="T38" t="n">
-        <v>1244.290962757505</v>
+        <v>1058.335485562116</v>
       </c>
       <c r="U38" t="b">
         <v>0</v>
@@ -4544,22 +4542,22 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4577,14 +4575,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>08:00:06.984000</t>
+          <t>08:00:04.192000</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>43617.33341416666</v>
+        <v>43617.33338185185</v>
       </c>
       <c r="E39" t="n">
-        <v>1559376006</v>
+        <v>1559376004</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -4593,53 +4591,53 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>WiFi 2.4GHz</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="J39" t="n">
         <v>147</v>
       </c>
       <c r="K39" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L39" t="n">
         <v>1010</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>(180, 293, 1014)</t>
+          <t>(147, 284, 1010)</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="O39" t="n">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="P39" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q39" t="n">
-        <v>186</v>
+        <v>179.51657506738</v>
       </c>
       <c r="R39" t="n">
-        <v>291</v>
+        <v>257.4150335757836</v>
       </c>
       <c r="S39" t="n">
-        <v>1018</v>
+        <v>1012.612806214959</v>
       </c>
       <c r="T39" t="n">
-        <v>1066.490037459329</v>
+        <v>1058.732733035113</v>
       </c>
       <c r="U39" t="b">
         <v>0</v>
@@ -4652,17 +4650,17 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>494fd147-05ef-4efb-a0ce-bbccadaf89c5</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>9a:7d:ba:09:5b:6d</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4685,97 +4683,95 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>08:00:07.004000</t>
+          <t>08:00:00.489000</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>43617.33341439815</v>
+        <v>43617.33333899306</v>
       </c>
       <c r="E40" t="n">
-        <v>1559376007</v>
+        <v>1559376000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="K40" t="n">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="L40" t="n">
-        <v>1075</v>
+        <v>1103</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>(246, 210, 1074)</t>
+          <t>(151, 283, 1103)</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="O40" t="n">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="P40" t="n">
-        <v>1074</v>
+        <v>1103</v>
       </c>
       <c r="Q40" t="n">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="R40" t="n">
-        <v>208</v>
+        <v>281</v>
       </c>
       <c r="S40" t="n">
-        <v>1078</v>
+        <v>1107</v>
       </c>
       <c r="T40" t="n">
-        <v>1116.890325860154</v>
+        <v>1144.574593462567</v>
       </c>
       <c r="U40" t="b">
         <v>0</v>
       </c>
-      <c r="V40" t="n">
-        <v>20</v>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="b">
         <v>0</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -4793,69 +4789,69 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>08:00:07.185000</t>
+          <t>08:00:04.992000</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>43617.33341649306</v>
+        <v>43617.33339111111</v>
       </c>
       <c r="E41" t="n">
-        <v>1559376007</v>
+        <v>1559376004</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>14:97:8b:87:46:68</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>148</v>
+        <v>353</v>
       </c>
       <c r="K41" t="n">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="L41" t="n">
-        <v>1010</v>
+        <v>1232</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>(120, 287, 986)</t>
+          <t>(353, 129, 1232)</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>120</v>
+        <v>353</v>
       </c>
       <c r="O41" t="n">
-        <v>287</v>
+        <v>129</v>
       </c>
       <c r="P41" t="n">
-        <v>986</v>
+        <v>1232</v>
       </c>
       <c r="Q41" t="n">
-        <v>126</v>
+        <v>359</v>
       </c>
       <c r="R41" t="n">
-        <v>285</v>
+        <v>127</v>
       </c>
       <c r="S41" t="n">
-        <v>990</v>
+        <v>1236</v>
       </c>
       <c r="T41" t="n">
-        <v>1029.971358825089</v>
+        <v>1282.79148734313</v>
       </c>
       <c r="U41" t="b">
         <v>0</v>
@@ -4868,22 +4864,22 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
+          <t>9cc8b822-6c43-4c7c-9e8d-489b523fda36</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>21:1f:6b:e8:a4:8f</t>
+          <t>14:97:8b:87:46:68</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>39222</t>
+          <t>39202</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -4901,69 +4897,69 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>08:00:07.489000</t>
+          <t>08:00:07.185000</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>43617.33342001157</v>
+        <v>43617.33341649306</v>
       </c>
       <c r="E42" t="n">
         <v>1559376007</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>351</v>
+        <v>148</v>
       </c>
       <c r="K42" t="n">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="L42" t="n">
-        <v>1210</v>
+        <v>1010</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>(349, 105, 1215)</t>
+          <t>(148, 283, 1010)</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>349</v>
+        <v>148</v>
       </c>
       <c r="O42" t="n">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="P42" t="n">
-        <v>1215</v>
+        <v>1010</v>
       </c>
       <c r="Q42" t="n">
-        <v>355</v>
+        <v>154</v>
       </c>
       <c r="R42" t="n">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="S42" t="n">
-        <v>1219</v>
+        <v>1014</v>
       </c>
       <c r="T42" t="n">
-        <v>1263.178134706265</v>
+        <v>1055.189556430502</v>
       </c>
       <c r="U42" t="b">
         <v>0</v>
@@ -4976,22 +4972,22 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>34:a6:dc:0d:cb:91</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5009,1062 +5005,102 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>08:00:07.504000</t>
+          <t>08:00:07.982000</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>43617.33342018518</v>
+        <v>43617.3334257176</v>
       </c>
       <c r="E43" t="n">
         <v>1559376007</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>RFID</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="K43" t="n">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="L43" t="n">
-        <v>1075</v>
+        <v>1010</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>(227, 253, 1085)</t>
+          <t>(147, 282, 1010)</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="O43" t="n">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="P43" t="n">
-        <v>1085</v>
+        <v>1010</v>
       </c>
       <c r="Q43" t="n">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="R43" t="n">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="S43" t="n">
-        <v>1089</v>
+        <v>1014</v>
       </c>
       <c r="T43" t="n">
-        <v>1132.442934544606</v>
+        <v>1054.785760237594</v>
       </c>
       <c r="U43" t="b">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W43" t="b">
         <v>0</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
+          <t>b917b9ef-f3a9-4aa3-b9fa-52886d4efb8f</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
+          <t>4ce503aa-dfaf-4cd9-832d-37b3b72fea21</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>71:12:fc:5e:b0:9d</t>
+          <t>19:c8:c0:61:68:36</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>37957</t>
+          <t>39222</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
           <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>08:00:07.689000</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>43617.33342232639</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>351</v>
-      </c>
-      <c r="K44" t="n">
-        <v>129</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1210</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>(337, 141, 1227)</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>337</v>
-      </c>
-      <c r="O44" t="n">
-        <v>141</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1227</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>343</v>
-      </c>
-      <c r="R44" t="n">
-        <v>139</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1231</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1275.044705098609</v>
-      </c>
-      <c r="U44" t="b">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="b">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>08:00:07.982000</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>43617.3334257176</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>39222</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>21:1f:6b:e8:a4:8f</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>147</v>
-      </c>
-      <c r="K45" t="n">
-        <v>282</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1010</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>(117, 265, 991)</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>117</v>
-      </c>
-      <c r="O45" t="n">
-        <v>265</v>
-      </c>
-      <c r="P45" t="n">
-        <v>991</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>123</v>
-      </c>
-      <c r="R45" t="n">
-        <v>263</v>
-      </c>
-      <c r="S45" t="n">
-        <v>995</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1028.483835556009</v>
-      </c>
-      <c r="U45" t="b">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="b">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>21:1f:6b:e8:a4:8f</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>39222</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>08:00:07.998000</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>43617.33342590278</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1559376007</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>37957</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>71:12:fc:5e:b0:9d</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>235</v>
-      </c>
-      <c r="K46" t="n">
-        <v>242</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1084</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>(212, 255, 1110)</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>212</v>
-      </c>
-      <c r="O46" t="n">
-        <v>255</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1110</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>218</v>
-      </c>
-      <c r="R46" t="n">
-        <v>253</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1114</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1154.002166375783</v>
-      </c>
-      <c r="U46" t="b">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>16</v>
-      </c>
-      <c r="W46" t="b">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>71:12:fc:5e:b0:9d</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>37957</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>08:00:08.192000</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>43617.33342814815</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1559376008</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>RFID</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>350</v>
-      </c>
-      <c r="K47" t="n">
-        <v>129</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1210</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>(321, 105, 1201)</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>321</v>
-      </c>
-      <c r="O47" t="n">
-        <v>105</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1201</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>327</v>
-      </c>
-      <c r="R47" t="n">
-        <v>103</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1205</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1242.369912707162</v>
-      </c>
-      <c r="U47" t="b">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="b">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>0e927dbc-b3fc-471d-9015-3ef887f74caa</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>34:a6:dc:0d:cb:91</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>08:00:00</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>43617.33333333334</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1559376000</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>37957</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>WiFi 2.4GHz</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>20:7e:5c:21:0f:fa</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>235</v>
-      </c>
-      <c r="K48" t="n">
-        <v>244</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1083</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>(248, 228, 1087)</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>248</v>
-      </c>
-      <c r="O48" t="n">
-        <v>228</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1087</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>288.0633419569593</v>
-      </c>
-      <c r="R48" t="n">
-        <v>206.1341728215513</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1082.282546548366</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1137.251511320165</v>
-      </c>
-      <c r="U48" t="b">
-        <v>0</v>
-      </c>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="b">
-        <v>0</v>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>1a22c31c-6d4c-49b9-ab79-0db20bf5aaf8</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>20:7e:5c:21:0f:fa</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>37957</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>08:00:00.489000</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>43617.33333899306</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1559376000</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>39222</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>WiFi 2.4GHz</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1c:23:e9:79:8e:b9</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>151</v>
-      </c>
-      <c r="K49" t="n">
-        <v>283</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1103</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>(156, 305, 1120)</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>156</v>
-      </c>
-      <c r="O49" t="n">
-        <v>305</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1120</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>192.776424191348</v>
-      </c>
-      <c r="R49" t="n">
-        <v>275.1585823150742</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1122.755181708436</v>
-      </c>
-      <c r="T49" t="n">
-        <v>1170.526804477369</v>
-      </c>
-      <c r="U49" t="b">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="b">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>809773ac-1723-4db0-a381-346edd88caff</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>1c:23:e9:79:8e:b9</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>39222</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>08:00:05.392000</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>43617.33339574074</v>
-      </c>
-      <c r="E50" t="n">
-        <v>1559376005</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>WiFi 2.4GHz</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>d4:19:f2:ec:a7:5f</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>352</v>
-      </c>
-      <c r="K50" t="n">
-        <v>129</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1224</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>(353, 151, 1218)</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>353</v>
-      </c>
-      <c r="O50" t="n">
-        <v>151</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1218</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>404.8839165505985</v>
-      </c>
-      <c r="R50" t="n">
-        <v>132.3240581309418</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1204.838739051932</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1276.245274232191</v>
-      </c>
-      <c r="U50" t="b">
-        <v>0</v>
-      </c>
-      <c r="V50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W50" t="b">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>b178b1e2-ef7a-4199-9b6f-340580dcb07c</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>2f2b8aa6-db5c-4889-adb1-384bde1c6355</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>d4:19:f2:ec:a7:5f</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>39202</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>08:00:00.691000</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>43617.33334133102</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1559376000</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>39222</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>camera</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>a9eba294-d065-4028-953e-473442055a00</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>17:03:fa:43:d8:b3</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>152</v>
-      </c>
-      <c r="K51" t="n">
-        <v>283</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1103</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>(144, 285, 1103)</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>144</v>
-      </c>
-      <c r="O51" t="n">
-        <v>285</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1103</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>150</v>
-      </c>
-      <c r="R51" t="n">
-        <v>283</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1107</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1144.20889701138</v>
-      </c>
-      <c r="U51" t="b">
-        <v>0</v>
-      </c>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="b">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>a9eba294-d065-4028-953e-473442055a00</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>a0bdb216-c0f7-4a4b-b3f7-9b59ed46475d</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>17:03:fa:43:d8:b3</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>08:00:03.496000</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>43617.3333737963</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1559376003</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>37957</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>camera</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>a9eba294-d065-4028-953e-473442055a00</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>a4:ab:6c:3f:79:83</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>236</v>
-      </c>
-      <c r="K52" t="n">
-        <v>243</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1092</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>(241, 250, 1095)</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>241</v>
-      </c>
-      <c r="O52" t="n">
-        <v>250</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1095</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>247</v>
-      </c>
-      <c r="R52" t="n">
-        <v>248</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1099</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1144.119748977352</v>
-      </c>
-      <c r="U52" t="b">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>3</v>
-      </c>
-      <c r="W52" t="b">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>a9eba294-d065-4028-953e-473442055a00</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>35aa6cc0-c677-444f-ad4f-d94f0e50909c</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>a4:ab:6c:3f:79:83</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
